--- a/report/Report-Inspection-Sarana Bantu Pemanduan 3.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 3.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="167">
   <si>
     <t>CHECK LIST VERIFIKASI DOKUMEN SARANA BANTU DAN PRASARANA PEMANDUAN</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>: ${pelaksana} ${cabang}</t>
+  </si>
+  <si>
+    <t>: ${pelaksana} Cabang ${cabang}</t>
   </si>
 </sst>
 </file>
@@ -863,48 +866,6 @@
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -994,26 +955,68 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,7 +1301,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1314,644 +1317,651 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>165</v>
+      <c r="C4" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
     </row>
     <row r="20" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="18" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="28"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="29">
+      <c r="A21" s="15">
         <v>1</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="29">
+      <c r="A22" s="15">
         <v>2</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="29">
+      <c r="A23" s="15">
         <v>3</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="19">
+      <c r="A24" s="5">
         <v>4</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="29">
+      <c r="A25" s="15">
         <v>5</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="19">
+      <c r="A26" s="5">
         <v>6</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="29">
+      <c r="A27" s="15">
         <v>7</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="18" t="s">
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="13"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="39"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="40"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="41"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="40"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="41"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="40"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="41"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="40"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="41"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="44"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="52"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="11"/>
+      <c r="B57" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="L19:N19"/>
@@ -1966,13 +1976,6 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1997,975 +2000,946 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="49"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="49"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="49"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="49"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="49"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="49"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="49"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="49"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="49"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="49"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="37" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="6" t="s">
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="71"/>
+      <c r="H25" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4" t="s">
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="67"/>
+      <c r="H27" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="54"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="41"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="54"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="41"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4" t="s">
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
+      <c r="G30" s="67"/>
+      <c r="H30" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="54"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="41"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="55"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="44"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="1" t="s">
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="66" t="s">
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="1" t="s">
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
+      <c r="G36" s="64"/>
+      <c r="H36" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="56" t="s">
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="56" t="s">
+      <c r="G37" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="56" t="s">
+      <c r="H37" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="56" t="s">
+      <c r="I37" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="49"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="35"/>
     </row>
     <row r="39" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B39" s="19">
+      <c r="B39" s="5">
         <v>1</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61" t="s">
+      <c r="D39" s="45"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="61" t="s">
+      <c r="H39" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="61" t="s">
+      <c r="I39" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="49"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="35"/>
     </row>
     <row r="40" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="19">
+      <c r="B40" s="5">
         <v>2</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="61" t="s">
+      <c r="D40" s="45"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="H40" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="I40" s="61" t="s">
+      <c r="I40" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="J40" s="48"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="49"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="35"/>
     </row>
     <row r="41" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="19">
+      <c r="B41" s="5">
         <v>3</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="61" t="s">
+      <c r="D41" s="45"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="61" t="s">
+      <c r="H41" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="I41" s="61" t="s">
+      <c r="I41" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J41" s="48"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="49"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="35"/>
     </row>
     <row r="42" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="19">
+      <c r="B42" s="5">
         <v>4</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="61" t="s">
+      <c r="D42" s="45"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="61" t="s">
+      <c r="H42" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="I42" s="61" t="s">
+      <c r="I42" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="J42" s="48"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="49"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="35"/>
     </row>
     <row r="43" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="19">
+      <c r="B43" s="5">
         <v>5</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="61" t="s">
+      <c r="D43" s="45"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="H43" s="61" t="s">
+      <c r="H43" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="I43" s="61" t="s">
+      <c r="I43" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="J43" s="48"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="49"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="35"/>
     </row>
     <row r="44" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="19"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="49"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="35"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="49"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="35"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="52">
+      <c r="B46" s="38">
         <v>1</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="69" t="s">
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="H46" s="70" t="s">
+      <c r="H46" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="I46" s="69" t="s">
+      <c r="I46" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="J46" s="53"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="25"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B47" s="54"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="41"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="27"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B48" s="55"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="44"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
     </row>
     <row r="49" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="52">
+      <c r="B49" s="38">
         <v>2</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="70" t="s">
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="69" t="s">
+      <c r="H49" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="I49" s="69" t="s">
+      <c r="I49" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="J49" s="53"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B50" s="55"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="44"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B51" s="19">
+      <c r="B51" s="5">
         <v>3</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63" t="s">
+      <c r="D51" s="45"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="H51" s="61" t="s">
+      <c r="H51" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="I51" s="63" t="s">
+      <c r="I51" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="J51" s="48"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="49"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="35"/>
     </row>
     <row r="52" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="52">
+      <c r="B52" s="38">
         <v>4</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="69" t="s">
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="H52" s="70" t="s">
+      <c r="H52" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="I52" s="69" t="s">
+      <c r="I52" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="J52" s="53"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="25"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B53" s="55"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="44"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="30"/>
     </row>
     <row r="54" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B54" s="19">
+      <c r="B54" s="5">
         <v>5</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63" t="s">
+      <c r="D54" s="45"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="H54" s="61" t="s">
+      <c r="H54" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="I54" s="63" t="s">
+      <c r="I54" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="J54" s="48"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="49"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="35"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="39"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="25"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B57" s="40"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="41"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="27"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B58" s="40"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="41"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="27"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B59" s="40"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="41"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="27"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="40"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="41"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="27"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="44"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="30"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="72" t="s">
+      <c r="B68" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="C52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="C49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="C46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:E37"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:I29"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:I32"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C17:L17"/>
@@ -2975,6 +2949,35 @@
     <mergeCell ref="J24:L26"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="H25:I26"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:I32"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:E37"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="C49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 3.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 3.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="175">
   <si>
     <t>CHECK LIST VERIFIKASI DOKUMEN SARANA BANTU DAN PRASARANA PEMANDUAN</t>
   </si>
@@ -557,6 +557,30 @@
   </si>
   <si>
     <t>: ${pelaksana} Cabang ${cabang}</t>
+  </si>
+  <si>
+    <t>${table:operator.valid}</t>
+  </si>
+  <si>
+    <t>${table:operator.tidakvalid}</t>
+  </si>
+  <si>
+    <t>${table:operator.tidakada}</t>
+  </si>
+  <si>
+    <t>${table:operator.keterangan}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.valid}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.tidakvalid}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.tidakada}</t>
+  </si>
+  <si>
+    <t>${table:komunikasi.keterangan}</t>
   </si>
 </sst>
 </file>
@@ -864,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -958,13 +982,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -973,51 +1042,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1300,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1378,28 +1403,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55" t="s">
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1409,7 +1434,7 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="55"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1479,30 +1504,30 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
     </row>
     <row r="20" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1745,28 +1770,28 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55" t="s">
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="4" t="s">
         <v>13</v>
       </c>
@@ -1776,9 +1801,9 @@
       <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="55"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G35" s="53"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
         <v>57</v>
       </c>
@@ -1788,10 +1813,18 @@
       <c r="C36" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="D36" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
@@ -1864,10 +1897,18 @@
       <c r="C43" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
+      <c r="D43" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
@@ -1948,20 +1989,13 @@
       <c r="B56" s="31"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="53"/>
+      <c r="B57" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="L19:N19"/>
@@ -1976,6 +2010,13 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2000,20 +2041,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2051,18 +2092,18 @@
       <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -2190,18 +2231,18 @@
       <c r="B17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="34" t="s">
@@ -2284,99 +2325,99 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71" t="s">
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="72" t="s">
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="72" t="s">
+      <c r="G25" s="59"/>
+      <c r="H25" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67" t="s">
+      <c r="G27" s="62"/>
+      <c r="H27" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="67"/>
+      <c r="I27" s="62"/>
       <c r="J27" s="39"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="40"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="26"/>
       <c r="K28" s="19"/>
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="40"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="26"/>
       <c r="K29" s="19"/>
       <c r="L29" s="27"/>
@@ -2385,45 +2426,45 @@
       <c r="B30" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="67" t="s">
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="67"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="39"/>
       <c r="K30" s="24"/>
       <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="40"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="26"/>
       <c r="K31" s="19"/>
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="41"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="28"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
@@ -2437,48 +2478,48 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64" t="s">
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="65" t="s">
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="64" t="s">
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64" t="s">
+      <c r="G36" s="65"/>
+      <c r="H36" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="64"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
       <c r="F37" s="42" t="s">
         <v>117</v>
       </c>
@@ -2491,9 +2532,9 @@
       <c r="I37" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" s="43" t="s">
@@ -2661,19 +2702,19 @@
       <c r="B46" s="38">
         <v>1</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="60" t="s">
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="H46" s="61" t="s">
+      <c r="H46" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="I46" s="60" t="s">
+      <c r="I46" s="69" t="s">
         <v>147</v>
       </c>
       <c r="J46" s="39"/>
@@ -2682,26 +2723,26 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="40"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="60"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="69"/>
       <c r="J47" s="26"/>
       <c r="K47" s="19"/>
       <c r="L47" s="27"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B48" s="41"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="60"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="69"/>
       <c r="J48" s="28"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
@@ -2710,19 +2751,19 @@
       <c r="B49" s="38">
         <v>2</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="61" t="s">
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="60" t="s">
+      <c r="H49" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="I49" s="60" t="s">
+      <c r="I49" s="69" t="s">
         <v>151</v>
       </c>
       <c r="J49" s="39"/>
@@ -2731,13 +2772,13 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" s="41"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
       <c r="J50" s="28"/>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
@@ -2769,19 +2810,19 @@
       <c r="B52" s="38">
         <v>4</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="60" t="s">
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="H52" s="61" t="s">
+      <c r="H52" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="I52" s="60" t="s">
+      <c r="I52" s="69" t="s">
         <v>159</v>
       </c>
       <c r="J52" s="39"/>
@@ -2790,13 +2831,13 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" s="41"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="60"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="69"/>
       <c r="J53" s="28"/>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
@@ -2905,12 +2946,12 @@
       <c r="L61" s="30"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" s="37"/>
@@ -2931,15 +2972,44 @@
       <c r="E67" s="29"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="C49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="C46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:E37"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:I32"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C17:L17"/>
@@ -2949,35 +3019,6 @@
     <mergeCell ref="J24:L26"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="H25:I26"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:I29"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:I32"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:E37"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="C49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="C52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 3.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 3.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Kapal" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sarana Bantu Pemanduan'!$A$1:$I$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sarana Bantu Pemanduan'!$A$1:$I$55</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
   <si>
     <t>CHECK LIST VERIFIKASI DOKUMEN SARANA BANTU DAN PRASARANA PEMANDUAN</t>
   </si>
@@ -581,6 +581,24 @@
   </si>
   <si>
     <t>${table:komunikasi.keterangan}</t>
+  </si>
+  <si>
+    <t>${nama_kkm}</t>
+  </si>
+  <si>
+    <t>${kkm_jabatan}</t>
+  </si>
+  <si>
+    <t>${v01}</t>
+  </si>
+  <si>
+    <t>${tv01}</t>
+  </si>
+  <si>
+    <t>${ta01}</t>
+  </si>
+  <si>
+    <t>${keterangan_kkm}</t>
   </si>
 </sst>
 </file>
@@ -888,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -979,16 +997,56 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1006,43 +1064,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:G43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1342,15 +1364,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1378,15 +1400,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -1403,28 +1425,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53" t="s">
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1434,7 +1456,7 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="53"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1460,108 +1482,157 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
+      <c r="A13" s="19">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="75"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="53" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B17" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C17" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-    </row>
-    <row r="20" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="4" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+    </row>
+    <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
-    </row>
-    <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="F18" s="10"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>2</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="21" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
-        <v>1</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="19"/>
@@ -1573,21 +1644,21 @@
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
     </row>
-    <row r="22" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
-        <v>2</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>30</v>
+    <row r="22" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="19"/>
@@ -1599,21 +1670,21 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
-        <v>3</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="19"/>
@@ -1627,19 +1698,19 @@
     </row>
     <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
@@ -1651,21 +1722,21 @@
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
     </row>
-    <row r="25" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="15">
-        <v>5</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="19"/>
@@ -1677,249 +1748,215 @@
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
     </row>
-    <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>6</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="18"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="18"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
-      <c r="L26" s="18"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
     </row>
-    <row r="27" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="15">
-        <v>7</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A29" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
+      <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
+      <c r="A32" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="57"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>10</v>
+      <c r="A34" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="53"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="73" t="s">
+      <c r="E34" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="F36" s="73" t="s">
+      <c r="F34" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G34" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="A39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>12</v>
+      <c r="A41" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="F43" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>174</v>
-      </c>
+      <c r="A43" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="26"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="26"/>
@@ -1940,76 +1977,44 @@
       <c r="G47" s="27"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="26"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="27"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="26"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="27"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="52" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="52"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="54"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="54" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="54"/>
+      <c r="B55" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A10:A11"/>
@@ -2017,12 +2022,26 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="17" max="16383" man="1"/>
-    <brk id="30" max="16383" man="1"/>
+    <brk id="15" max="16383" man="1"/>
+    <brk id="28" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -2041,20 +2060,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2092,18 +2111,18 @@
       <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -2231,18 +2250,18 @@
       <c r="B17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="34" t="s">
@@ -2325,99 +2344,99 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60" t="s">
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59" t="s">
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60" t="s">
+      <c r="G25" s="73"/>
+      <c r="H25" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62" t="s">
+      <c r="G27" s="69"/>
+      <c r="H27" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="62"/>
+      <c r="I27" s="69"/>
       <c r="J27" s="39"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="40"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
       <c r="J28" s="26"/>
       <c r="K28" s="19"/>
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="40"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
       <c r="J29" s="26"/>
       <c r="K29" s="19"/>
       <c r="L29" s="27"/>
@@ -2426,45 +2445,45 @@
       <c r="B30" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="62" t="s">
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62" t="s">
+      <c r="G30" s="69"/>
+      <c r="H30" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="62"/>
+      <c r="I30" s="69"/>
       <c r="J30" s="39"/>
       <c r="K30" s="24"/>
       <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="40"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="26"/>
       <c r="K31" s="19"/>
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="41"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="28"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
@@ -2478,48 +2497,48 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65" t="s">
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="66" t="s">
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="65" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65" t="s">
+      <c r="G36" s="66"/>
+      <c r="H36" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
       <c r="F37" s="42" t="s">
         <v>117</v>
       </c>
@@ -2532,9 +2551,9 @@
       <c r="I37" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" s="43" t="s">
@@ -2702,19 +2721,19 @@
       <c r="B46" s="38">
         <v>1</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="69" t="s">
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="H46" s="70" t="s">
+      <c r="H46" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="I46" s="69" t="s">
+      <c r="I46" s="62" t="s">
         <v>147</v>
       </c>
       <c r="J46" s="39"/>
@@ -2723,26 +2742,26 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="40"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="69"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="62"/>
       <c r="J47" s="26"/>
       <c r="K47" s="19"/>
       <c r="L47" s="27"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B48" s="41"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="69"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="62"/>
       <c r="J48" s="28"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
@@ -2751,19 +2770,19 @@
       <c r="B49" s="38">
         <v>2</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="70" t="s">
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="69" t="s">
+      <c r="H49" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="I49" s="69" t="s">
+      <c r="I49" s="62" t="s">
         <v>151</v>
       </c>
       <c r="J49" s="39"/>
@@ -2772,13 +2791,13 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" s="41"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
       <c r="J50" s="28"/>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
@@ -2810,19 +2829,19 @@
       <c r="B52" s="38">
         <v>4</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="69" t="s">
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="H52" s="70" t="s">
+      <c r="H52" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="I52" s="69" t="s">
+      <c r="I52" s="62" t="s">
         <v>159</v>
       </c>
       <c r="J52" s="39"/>
@@ -2831,13 +2850,13 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" s="41"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="69"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="62"/>
       <c r="J53" s="28"/>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
@@ -2946,12 +2965,12 @@
       <c r="L61" s="30"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" s="37"/>
@@ -2972,44 +2991,15 @@
       <c r="E67" s="29"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="72" t="s">
+      <c r="B68" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="C52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="C49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="C46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:E37"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:I29"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:I32"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C17:L17"/>
@@ -3019,6 +3009,35 @@
     <mergeCell ref="J24:L26"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="H25:I26"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:I32"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:E37"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="C49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 3.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 3.xlsx
@@ -207,9 +207,6 @@
     <t>${table:operator.nama}</t>
   </si>
   <si>
-    <t>${table:operator.jabatan}</t>
-  </si>
-  <si>
     <t>B. DOKUMEN PERALATAN KOMUNIKASI</t>
   </si>
   <si>
@@ -599,6 +596,9 @@
   </si>
   <si>
     <t>${keterangan_kkm}</t>
+  </si>
+  <si>
+    <t>Radio Operator</t>
   </si>
 </sst>
 </file>
@@ -1001,16 +1001,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,52 +1065,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1364,15 +1364,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1388,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1400,15 +1400,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -1425,28 +1425,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="57"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1486,24 +1486,24 @@
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="E13" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="75"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -1523,30 +1523,30 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
     </row>
     <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1770,15 +1770,15 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
@@ -1789,28 +1789,28 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57" t="s">
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="57"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="22" t="s">
@@ -1830,19 +1830,19 @@
         <v>58</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D34" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="F34" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="G34" s="22" t="s">
         <v>169</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1874,7 +1874,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1891,7 +1891,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
@@ -1908,30 +1908,30 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="C41" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="D41" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="53" t="s">
+      <c r="F41" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="G41" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -1986,10 +1986,10 @@
       <c r="G48" s="30"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="54"/>
+      <c r="A50" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="55"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
@@ -2008,20 +2008,13 @@
       <c r="B54" s="31"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="55"/>
+      <c r="A55" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="L17:N17"/>
@@ -2036,6 +2029,13 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2060,24 +2060,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="A1" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
@@ -2088,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2101,42 +2101,42 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
+      <c r="C8" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>73</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>74</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
@@ -2145,17 +2145,17 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>77</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
@@ -2164,17 +2164,17 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>80</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
@@ -2183,17 +2183,17 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>83</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
@@ -2202,17 +2202,17 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>86</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -2221,17 +2221,17 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>89</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -2240,42 +2240,42 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
+      <c r="C17" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -2283,17 +2283,17 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
@@ -2301,17 +2301,17 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
@@ -2319,17 +2319,17 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
@@ -2337,230 +2337,230 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="37" t="s">
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="62" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="73" t="s">
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73" t="s">
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="74" t="s">
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73" t="s">
+      <c r="G25" s="62"/>
+      <c r="H25" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69" t="s">
+      <c r="G27" s="65"/>
+      <c r="H27" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="69"/>
+      <c r="I27" s="65"/>
       <c r="J27" s="39"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="40"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
       <c r="J28" s="26"/>
       <c r="K28" s="19"/>
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="40"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="26"/>
       <c r="K29" s="19"/>
       <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69" t="s">
+      <c r="G30" s="65"/>
+      <c r="H30" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="69"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="39"/>
       <c r="K30" s="24"/>
       <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="40"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
       <c r="J31" s="26"/>
       <c r="K31" s="19"/>
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="41"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="28"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="37" t="s">
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="69" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="67" t="s">
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66" t="s">
+      <c r="G36" s="68"/>
+      <c r="H36" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66" t="s">
+      <c r="I36" s="68"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="42" t="s">
         <v>116</v>
-      </c>
-      <c r="I36" s="66"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="42" t="s">
-        <v>117</v>
       </c>
       <c r="G37" s="42" t="s">
         <v>15</v>
       </c>
       <c r="H37" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>120</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>121</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
@@ -2577,19 +2577,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="45"/>
       <c r="E39" s="35"/>
       <c r="F39" s="46"/>
       <c r="G39" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="47" t="s">
+      <c r="I39" s="47" t="s">
         <v>124</v>
-      </c>
-      <c r="I39" s="47" t="s">
-        <v>125</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="45"/>
@@ -2600,19 +2600,19 @@
         <v>2</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="35"/>
       <c r="F40" s="48"/>
       <c r="G40" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="47" t="s">
+      <c r="I40" s="47" t="s">
         <v>128</v>
-      </c>
-      <c r="I40" s="47" t="s">
-        <v>129</v>
       </c>
       <c r="J40" s="34"/>
       <c r="K40" s="45"/>
@@ -2623,19 +2623,19 @@
         <v>3</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="45"/>
       <c r="E41" s="35"/>
       <c r="F41" s="48"/>
       <c r="G41" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="47" t="s">
+      <c r="I41" s="47" t="s">
         <v>132</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>133</v>
       </c>
       <c r="J41" s="34"/>
       <c r="K41" s="45"/>
@@ -2646,19 +2646,19 @@
         <v>4</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="45"/>
       <c r="E42" s="35"/>
       <c r="F42" s="48"/>
       <c r="G42" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="H42" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="H42" s="47" t="s">
+      <c r="I42" s="47" t="s">
         <v>136</v>
-      </c>
-      <c r="I42" s="47" t="s">
-        <v>137</v>
       </c>
       <c r="J42" s="34"/>
       <c r="K42" s="45"/>
@@ -2669,19 +2669,19 @@
         <v>5</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="45"/>
       <c r="E43" s="35"/>
       <c r="F43" s="48"/>
       <c r="G43" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="H43" s="47" t="s">
+      <c r="I43" s="47" t="s">
         <v>140</v>
-      </c>
-      <c r="I43" s="47" t="s">
-        <v>141</v>
       </c>
       <c r="J43" s="34"/>
       <c r="K43" s="45"/>
@@ -2702,10 +2702,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B45" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="44" t="s">
         <v>142</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>143</v>
       </c>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
@@ -2721,20 +2721,20 @@
       <c r="B46" s="38">
         <v>1</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="62" t="s">
+      <c r="H46" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="H46" s="63" t="s">
+      <c r="I46" s="72" t="s">
         <v>146</v>
-      </c>
-      <c r="I46" s="62" t="s">
-        <v>147</v>
       </c>
       <c r="J46" s="39"/>
       <c r="K46" s="24"/>
@@ -2742,26 +2742,26 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="40"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="62"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="72"/>
       <c r="J47" s="26"/>
       <c r="K47" s="19"/>
       <c r="L47" s="27"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B48" s="41"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="62"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="72"/>
       <c r="J48" s="28"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
@@ -2770,20 +2770,20 @@
       <c r="B49" s="38">
         <v>2</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="63" t="s">
+      <c r="H49" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="62" t="s">
+      <c r="I49" s="72" t="s">
         <v>150</v>
-      </c>
-      <c r="I49" s="62" t="s">
-        <v>151</v>
       </c>
       <c r="J49" s="39"/>
       <c r="K49" s="24"/>
@@ -2791,13 +2791,13 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" s="41"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
       <c r="J50" s="28"/>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
@@ -2807,19 +2807,19 @@
         <v>3</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="35"/>
       <c r="F51" s="48"/>
       <c r="G51" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="H51" s="47" t="s">
+      <c r="I51" s="49" t="s">
         <v>154</v>
-      </c>
-      <c r="I51" s="49" t="s">
-        <v>155</v>
       </c>
       <c r="J51" s="34"/>
       <c r="K51" s="45"/>
@@ -2829,20 +2829,20 @@
       <c r="B52" s="38">
         <v>4</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="62" t="s">
+      <c r="H52" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="H52" s="63" t="s">
+      <c r="I52" s="72" t="s">
         <v>158</v>
-      </c>
-      <c r="I52" s="62" t="s">
-        <v>159</v>
       </c>
       <c r="J52" s="39"/>
       <c r="K52" s="24"/>
@@ -2850,13 +2850,13 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" s="41"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="62"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="28"/>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
@@ -2866,19 +2866,19 @@
         <v>5</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="35"/>
       <c r="F54" s="48"/>
       <c r="G54" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="H54" s="47" t="s">
+      <c r="I54" s="49" t="s">
         <v>162</v>
-      </c>
-      <c r="I54" s="49" t="s">
-        <v>163</v>
       </c>
       <c r="J54" s="34"/>
       <c r="K54" s="45"/>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -2965,12 +2965,12 @@
       <c r="L61" s="30"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
+      <c r="B63" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="74"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" s="37"/>
@@ -2991,15 +2991,44 @@
       <c r="E67" s="29"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
+      <c r="B68" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="C49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="C46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:E37"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:I32"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C17:L17"/>
@@ -3009,35 +3038,6 @@
     <mergeCell ref="J24:L26"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="H25:I26"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:I29"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:I32"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:E37"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="C49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="C52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/report/Report-Inspection-Sarana Bantu Pemanduan 3.xlsx
+++ b/report/Report-Inspection-Sarana Bantu Pemanduan 3.xlsx
@@ -598,7 +598,7 @@
     <t>${keterangan_kkm}</t>
   </si>
   <si>
-    <t>Radio Operator</t>
+    <t>${table:operator.jabatan}</t>
   </si>
 </sst>
 </file>
@@ -1005,13 +1005,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,42 +1064,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1425,28 +1425,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56" t="s">
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="F11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="56"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1523,30 +1523,30 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
     </row>
     <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1789,28 +1789,28 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56" t="s">
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="56"/>
+      <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="22" t="s">
@@ -2008,13 +2008,20 @@
       <c r="B54" s="31"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="L17:N17"/>
@@ -2029,13 +2036,6 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2060,20 +2060,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2111,18 +2111,18 @@
       <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
@@ -2250,18 +2250,18 @@
       <c r="B17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="34" t="s">
@@ -2344,99 +2344,99 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62" t="s">
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63" t="s">
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62" t="s">
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63" t="s">
+      <c r="G25" s="74"/>
+      <c r="H25" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="65" t="s">
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65" t="s">
+      <c r="G27" s="70"/>
+      <c r="H27" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="65"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="39"/>
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="40"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="26"/>
       <c r="K28" s="19"/>
       <c r="L28" s="27"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="40"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
       <c r="J29" s="26"/>
       <c r="K29" s="19"/>
       <c r="L29" s="27"/>
@@ -2445,45 +2445,45 @@
       <c r="B30" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="65" t="s">
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65" t="s">
+      <c r="G30" s="70"/>
+      <c r="H30" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="65"/>
+      <c r="I30" s="70"/>
       <c r="J30" s="39"/>
       <c r="K30" s="24"/>
       <c r="L30" s="25"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="40"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="26"/>
       <c r="K31" s="19"/>
       <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="41"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
       <c r="J32" s="28"/>
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
@@ -2497,48 +2497,48 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68" t="s">
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="69" t="s">
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68" t="s">
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68" t="s">
+      <c r="G36" s="67"/>
+      <c r="H36" s="67" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
       <c r="F37" s="42" t="s">
         <v>116</v>
       </c>
@@ -2551,9 +2551,9 @@
       <c r="I37" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" s="43" t="s">
@@ -2721,19 +2721,19 @@
       <c r="B46" s="38">
         <v>1</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="72" t="s">
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="H46" s="73" t="s">
+      <c r="H46" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="I46" s="72" t="s">
+      <c r="I46" s="63" t="s">
         <v>146</v>
       </c>
       <c r="J46" s="39"/>
@@ -2742,26 +2742,26 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="40"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="72"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="26"/>
       <c r="K47" s="19"/>
       <c r="L47" s="27"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B48" s="41"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="72"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="63"/>
       <c r="J48" s="28"/>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
@@ -2770,19 +2770,19 @@
       <c r="B49" s="38">
         <v>2</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="73" t="s">
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="H49" s="72" t="s">
+      <c r="H49" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="I49" s="72" t="s">
+      <c r="I49" s="63" t="s">
         <v>150</v>
       </c>
       <c r="J49" s="39"/>
@@ -2791,13 +2791,13 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" s="41"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
       <c r="J50" s="28"/>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
@@ -2829,19 +2829,19 @@
       <c r="B52" s="38">
         <v>4</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="72" t="s">
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="H52" s="73" t="s">
+      <c r="H52" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="I52" s="72" t="s">
+      <c r="I52" s="63" t="s">
         <v>158</v>
       </c>
       <c r="J52" s="39"/>
@@ -2850,13 +2850,13 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" s="41"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="72"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="63"/>
       <c r="J53" s="28"/>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
@@ -2965,12 +2965,12 @@
       <c r="L61" s="30"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" s="37"/>
@@ -2991,44 +2991,15 @@
       <c r="E67" s="29"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="75" t="s">
+      <c r="B68" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="75"/>
-      <c r="D68" s="75"/>
-      <c r="E68" s="75"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="C52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="C49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="C46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:E37"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C27:E29"/>
-    <mergeCell ref="F27:G29"/>
-    <mergeCell ref="H27:I29"/>
-    <mergeCell ref="C30:E32"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="H30:I32"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="C17:L17"/>
@@ -3038,6 +3009,35 @@
     <mergeCell ref="J24:L26"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="H25:I26"/>
+    <mergeCell ref="C27:E29"/>
+    <mergeCell ref="F27:G29"/>
+    <mergeCell ref="H27:I29"/>
+    <mergeCell ref="C30:E32"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="H30:I32"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:E37"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="C49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
